--- a/Client/Dev/AnimalRescue/Assets/Tables/shopgroup_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/shopgroup_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45F28E-3737-4F9B-AEDA-A0CCE7697247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="5085" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12855" yWindow="5085" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jeong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{60A893AA-01B4-4139-A5E8-A3F2E04DCC1F}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,17 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -615,9 +616,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>107</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>112</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>